--- a/ig/carecommunication/StructureDefinition-medcom-careCommunication-messageHeader.xlsx
+++ b/ig/carecommunication/StructureDefinition-medcom-careCommunication-messageHeader.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.2</t>
+    <t>4.0.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T14:20:03+01:00</t>
+    <t>2025-05-23T11:28:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1706,17 +1706,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="66.40625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="55.1171875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="68.453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="56.796875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="124.6328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="127.234375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1725,25 +1725,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="32.40625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="75.98828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="26.125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.8046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="33.76953125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="76.875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="27.4921875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="35.3203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="160.15234375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="163.75" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/carecommunication/StructureDefinition-medcom-careCommunication-messageHeader.xlsx
+++ b/ig/carecommunication/StructureDefinition-medcom-careCommunication-messageHeader.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$93</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3161" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3299" uniqueCount="454">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.3</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-23T11:28:08+00:00</t>
+    <t>2025-10-27T14:45:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Message header for care communication message</t>
+    <t>Message header for CareCommunication message</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -358,7 +358,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -375,7 +375,7 @@
 </t>
   </si>
   <si>
-    <t>A summary of the resource content. The narrative text shall always be included when exchanging a MedCom message. All MustSupport elements and extensions shall be included.</t>
+    <t>The narrative text SHALL always be included when exchanging a MedCom FHIR Bundle.</t>
   </si>
   <si>
     <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
@@ -388,6 +388,109 @@
   </si>
   <si>
     <t>Act.text?</t>
+  </si>
+  <si>
+    <t>MessageHeader.text.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>MessageHeader.text.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>MessageHeader.text.status</t>
+  </si>
+  <si>
+    <t>generated | extensions | additional | empty</t>
+  </si>
+  <si>
+    <t>The status of the narrative - whether it's entirely generated (from just the defined data or the extensions too), or whether a human authored it and it may contain additional data.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The status of a resource narrative.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/narrative-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Narrative.status</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>MessageHeader.text.div</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xhtml
+</t>
+  </si>
+  <si>
+    <t>Limited xhtml content</t>
+  </si>
+  <si>
+    <t>The actual narrative content, a stripped down version of XHTML.</t>
+  </si>
+  <si>
+    <t>The contents of the html element are an XHTML fragment containing only the basic html formatting elements described in chapters 7-11 and 15 of the HTML 4.0 standard, &lt;a&gt; elements (either name or href), images and internally contained stylesheets. The XHTML content SHALL NOT contain a head, a body, external stylesheet references, scripts, forms, base/link/xlink, frames, iframes and objects.</t>
+  </si>
+  <si>
+    <t>Narrative.div</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+txt-1:The narrative SHALL contain only the basic html formatting elements and attributes described in chapters 7-11 (except section 4 of chapter 9) and 15 of the HTML 4.0 standard, &lt;a&gt; elements (either name or href), images and internally contained style attributes {htmlChecks()}txt-2:The narrative SHALL have some non-whitespace content {htmlChecks()}</t>
   </si>
   <si>
     <t>MessageHeader.contained</t>
@@ -413,34 +516,13 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>MessageHeader.extension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
     <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>MessageHeader.modifierExtension</t>
@@ -478,16 +560,7 @@
     <t>Drives the behavior associated with this message.</t>
   </si>
   <si>
-    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
-  &lt;system value="http://medcomfhir.dk/ig/terminology/CodeSystem/medcom-messaging-eventCodes"/&gt;
-  &lt;code value="care-communication-message"/&gt;
-&lt;/valueCoding&gt;</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://medcomfhir.dk/ig/terminology/ValueSet/medcom-messaging-messageTypes</t>
+    <t>http://medcomfhir.dk/ig/terminology/ValueSet/medcom-messaging-messageTypes|1.8.1</t>
   </si>
   <si>
     <t>MSH-9.2</t>
@@ -502,41 +575,9 @@
     <t>MessageHeader.event[x].id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>MessageHeader.event[x].extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
     <t>MessageHeader.event[x].system</t>
   </si>
   <si>
@@ -552,6 +593,9 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
+    <t>http://medcomfhir.dk/ig/terminology/CodeSystem/medcom-messaging-eventCodes</t>
+  </si>
+  <si>
     <t>Coding.system</t>
   </si>
   <si>
@@ -592,6 +636,9 @@
   </si>
   <si>
     <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>care-communication-message</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -671,7 +718,7 @@
     <t>Indicates where message is to be sent for routing purposes.  Allows verification of "am I the intended recipient".</t>
   </si>
   <si>
-    <t xml:space="preserve">value:$this.extension.value}
+    <t xml:space="preserve">value:extension('http://medcomfhir.dk/ig/messaging/StructureDefinition/medcom-messaging-destinationUseExtension').value.code}
 </t>
   </si>
   <si>
@@ -728,7 +775,7 @@
     <t>MessageHeader.destination.target</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device)
+    <t xml:space="preserve">Reference(Device|4.0.1)
 </t>
   </si>
   <si>
@@ -772,7 +819,7 @@
     <t>MessageHeader.destination.receiver</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -874,12 +921,6 @@
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
-    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
-  &lt;system value="http://medcomfhir.dk/ig/terminology/CodeSystem/medcom-messaging-destinationUse"/&gt;
-  &lt;code value="primary"/&gt;
-&lt;/valueCoding&gt;</t>
-  </si>
-  <si>
     <t>Extension.value[x]</t>
   </si>
   <si>
@@ -977,12 +1018,6 @@
     <t>MessageHeader.destination:cc.extension:use.value[x]</t>
   </si>
   <si>
-    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
-  &lt;system value="http://medcomfhir.dk/ig/terminology/CodeSystem/medcom-messaging-destinationUse"/&gt;
-  &lt;code value="cc"/&gt;
-&lt;/valueCoding&gt;</t>
-  </si>
-  <si>
     <t>MessageHeader.destination:cc.extension:use.value[x].id</t>
   </si>
   <si>
@@ -1037,7 +1072,7 @@
     <t>MessageHeader.enterer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1)
 </t>
   </si>
   <si>
@@ -1232,7 +1267,7 @@
     <t>Reason for event occurrence.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/message-reason-encounter</t>
+    <t>http://hl7.org/fhir/ValueSet/message-reason-encounter|4.0.1</t>
   </si>
   <si>
     <t>EVN.4 / ORC.16 / OBR-31-reason for study / BPO-13-BP indication for use / RXO-20-indication / RXE-27-give indication / RXD-21-indication / RXG-22-indication / RXA-19-indication</t>
@@ -1316,7 +1351,7 @@
     <t>MessageHeader.response.details</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(OperationOutcome)
+    <t xml:space="preserve">Reference(OperationOutcome|4.0.1)
 </t>
   </si>
   <si>
@@ -1363,7 +1398,7 @@
     <t>MessageHeader.definition</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(MessageDefinition)
+    <t xml:space="preserve">canonical(MessageDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -1376,7 +1411,9 @@
     <t>Allows sender to define the expected contents of the message.</t>
   </si>
   <si>
-    <t>http://medcomfhir.dk/ig/carecommunication/medcom-careCommunication-message-definition|4.0.0</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+medcom-carecommunication-definition-url:SHALL reference a MedCom CareCommunication MessageDefinition whose canonical URL starts with
+http://medcomfhir.dk/ig/messagedefinitions/MessageDefinition/MedComCareCommunicationMessageDefinition|5. — that is, any version 5.x of the message definition. The current minor version the sender uses must be added in the end of the definition. {matches('^http://medcomfhir.dk/ig/messagedefinitions/MessageDefinition/MedComCareCommunicationMessageDefinition|5[.][0-9]{1,2}$')}</t>
   </si>
   <si>
     <t>Not directly supported.</t>
@@ -1697,7 +1734,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM89"/>
+  <dimension ref="A1:AM93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1706,17 +1743,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="68.453125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="56.796875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="58.6875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="48.6953125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="127.234375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="109.08203125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1725,25 +1762,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="33.76953125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="76.875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="27.4921875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="35.3203125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="28.94921875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="70.4375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="105.30078125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="30.28125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="163.75" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="140.38671875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2536,14 +2573,14 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>75</v>
@@ -2555,17 +2592,15 @@
         <v>75</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="M8" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>126</v>
-      </c>
+      <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
         <v>75</v>
@@ -2614,13 +2649,13 @@
         <v>75</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>75</v>
@@ -2632,7 +2667,7 @@
         <v>75</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>75</v>
@@ -2640,14 +2675,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2666,16 +2701,16 @@
         <v>75</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2713,19 +2748,19 @@
         <v>75</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>76</v>
@@ -2737,13 +2772,13 @@
         <v>75</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>75</v>
@@ -2751,46 +2786,42 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O10" t="s" s="2">
         <v>140</v>
       </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>75</v>
       </c>
@@ -2814,13 +2845,13 @@
         <v>75</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="AA10" t="s" s="2">
         <v>75</v>
@@ -2838,25 +2869,25 @@
         <v>75</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>75</v>
@@ -2864,10 +2895,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2887,23 +2918,21 @@
         <v>75</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>75</v>
       </c>
@@ -2912,7 +2941,7 @@
         <v>75</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>148</v>
+        <v>75</v>
       </c>
       <c r="T11" t="s" s="2">
         <v>75</v>
@@ -2927,11 +2956,13 @@
         <v>75</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="Y11" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Z11" t="s" s="2">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>75</v>
@@ -2949,7 +2980,7 @@
         <v>75</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>85</v>
@@ -2961,35 +2992,35 @@
         <v>75</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>97</v>
+        <v>152</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>151</v>
+        <v>75</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>153</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>75</v>
@@ -3009,7 +3040,9 @@
       <c r="M12" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="N12" s="2"/>
+      <c r="N12" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>75</v>
@@ -3058,13 +3091,13 @@
         <v>75</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>75</v>
@@ -3076,7 +3109,7 @@
         <v>75</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>75</v>
@@ -3091,7 +3124,7 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3110,16 +3143,16 @@
         <v>75</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M13" t="s" s="2">
         <v>161</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3157,19 +3190,19 @@
         <v>75</v>
       </c>
       <c r="AB13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF13" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>76</v>
@@ -3181,13 +3214,13 @@
         <v>75</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>75</v>
@@ -3195,45 +3228,45 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>169</v>
+        <v>132</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>75</v>
@@ -3282,25 +3315,25 @@
         <v>75</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>172</v>
+        <v>75</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>75</v>
@@ -3308,10 +3341,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3319,13 +3352,13 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>75</v>
@@ -3334,18 +3367,20 @@
         <v>86</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="O15" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="O15" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="P15" t="s" s="2">
         <v>75</v>
       </c>
@@ -3369,13 +3404,11 @@
         <v>75</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y15" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="Y15" s="2"/>
       <c r="Z15" t="s" s="2">
-        <v>75</v>
+        <v>174</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>75</v>
@@ -3393,10 +3426,10 @@
         <v>75</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>85</v>
@@ -3408,21 +3441,21 @@
         <v>97</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>75</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3430,7 +3463,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>85</v>
@@ -3442,21 +3475,19 @@
         <v>75</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>182</v>
+        <v>123</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>183</v>
+        <v>124</v>
       </c>
       <c r="N16" s="2"/>
-      <c r="O16" t="s" s="2">
-        <v>184</v>
-      </c>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>75</v>
       </c>
@@ -3504,7 +3535,7 @@
         <v>75</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>185</v>
+        <v>125</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
@@ -3516,13 +3547,13 @@
         <v>75</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>186</v>
+        <v>75</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>187</v>
+        <v>126</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>75</v>
@@ -3530,21 +3561,21 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>75</v>
@@ -3553,21 +3584,21 @@
         <v>75</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>189</v>
+        <v>130</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="O17" t="s" s="2">
-        <v>191</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>75</v>
       </c>
@@ -3603,37 +3634,37 @@
         <v>75</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>192</v>
+        <v>136</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>193</v>
+        <v>75</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>194</v>
+        <v>126</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>75</v>
@@ -3641,10 +3672,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3652,13 +3683,13 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>75</v>
@@ -3667,19 +3698,19 @@
         <v>86</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>196</v>
+        <v>99</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>75</v>
@@ -3689,7 +3720,7 @@
         <v>75</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>75</v>
+        <v>185</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>75</v>
@@ -3728,7 +3759,7 @@
         <v>75</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
@@ -3743,10 +3774,10 @@
         <v>97</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>75</v>
@@ -3754,10 +3785,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3765,10 +3796,10 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>75</v>
@@ -3780,20 +3811,18 @@
         <v>86</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>205</v>
+        <v>122</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>75</v>
       </c>
@@ -3829,23 +3858,25 @@
         <v>75</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="AC19" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AD19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>211</v>
+        <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>75</v>
@@ -3854,21 +3885,21 @@
         <v>97</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>75</v>
+        <v>194</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>213</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3876,31 +3907,33 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>155</v>
+        <v>105</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>156</v>
+        <v>197</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>157</v>
+        <v>198</v>
       </c>
       <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+      <c r="O20" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>75</v>
       </c>
@@ -3909,7 +3942,7 @@
         <v>75</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>75</v>
@@ -3948,7 +3981,7 @@
         <v>75</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>158</v>
+        <v>201</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
@@ -3960,13 +3993,13 @@
         <v>75</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>75</v>
+        <v>202</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>159</v>
+        <v>203</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>75</v>
@@ -3974,21 +4007,21 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>75</v>
@@ -3997,21 +4030,21 @@
         <v>75</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>132</v>
+        <v>205</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O21" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>75</v>
       </c>
@@ -4059,25 +4092,25 @@
         <v>75</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>165</v>
+        <v>208</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>75</v>
+        <v>209</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>159</v>
+        <v>210</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>75</v>
@@ -4085,45 +4118,45 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>217</v>
+        <v>75</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>131</v>
+        <v>212</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>134</v>
+        <v>215</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>140</v>
+        <v>216</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>75</v>
@@ -4172,25 +4205,25 @@
         <v>75</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>75</v>
+        <v>218</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>128</v>
+        <v>219</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>75</v>
@@ -4198,10 +4231,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4209,13 +4242,13 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>75</v>
@@ -4224,7 +4257,7 @@
         <v>86</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>155</v>
+        <v>221</v>
       </c>
       <c r="L23" t="s" s="2">
         <v>222</v>
@@ -4232,9 +4265,11 @@
       <c r="M23" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="N23" s="2"/>
+      <c r="N23" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="O23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>75</v>
@@ -4271,25 +4306,23 @@
         <v>75</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="AC23" s="2"/>
       <c r="AD23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>75</v>
+        <v>227</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>75</v>
@@ -4298,21 +4331,21 @@
         <v>97</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>225</v>
+        <v>75</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>75</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4332,21 +4365,19 @@
         <v>75</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>228</v>
+        <v>122</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>229</v>
+        <v>123</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>230</v>
+        <v>124</v>
       </c>
       <c r="N24" s="2"/>
-      <c r="O24" t="s" s="2">
-        <v>231</v>
-      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>75</v>
       </c>
@@ -4394,7 +4425,7 @@
         <v>75</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>227</v>
+        <v>125</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
@@ -4406,13 +4437,13 @@
         <v>75</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>232</v>
+        <v>126</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>75</v>
@@ -4420,21 +4451,21 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>75</v>
@@ -4443,23 +4474,21 @@
         <v>75</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>234</v>
+        <v>129</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>235</v>
+        <v>130</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>236</v>
+        <v>131</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>75</v>
       </c>
@@ -4507,25 +4536,25 @@
         <v>75</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>233</v>
+        <v>136</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>239</v>
+        <v>75</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>240</v>
+        <v>126</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>75</v>
@@ -4533,43 +4562,45 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>75</v>
+        <v>233</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>242</v>
+        <v>129</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="O26" t="s" s="2">
-        <v>245</v>
+        <v>166</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>75</v>
@@ -4618,46 +4649,44 @@
         <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>246</v>
+        <v>75</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>247</v>
+        <v>145</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>213</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>85</v>
@@ -4672,19 +4701,17 @@
         <v>86</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>205</v>
+        <v>122</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>75</v>
@@ -4733,13 +4760,13 @@
         <v>75</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>204</v>
+        <v>237</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>75</v>
@@ -4748,21 +4775,21 @@
         <v>97</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>75</v>
+        <v>241</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>213</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4782,19 +4809,21 @@
         <v>75</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>155</v>
+        <v>244</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>156</v>
+        <v>245</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>157</v>
+        <v>246</v>
       </c>
       <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+      <c r="O28" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>75</v>
       </c>
@@ -4842,7 +4871,7 @@
         <v>75</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>158</v>
+        <v>243</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
@@ -4854,13 +4883,13 @@
         <v>75</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>159</v>
+        <v>248</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>75</v>
@@ -4868,10 +4897,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>215</v>
+        <v>249</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4882,7 +4911,7 @@
         <v>85</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>75</v>
@@ -4891,19 +4920,23 @@
         <v>75</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>131</v>
+        <v>250</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+      <c r="O29" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>75</v>
       </c>
@@ -4939,35 +4972,37 @@
         <v>75</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AC29" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AD29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>164</v>
+        <v>75</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>165</v>
+        <v>249</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>75</v>
+        <v>255</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>75</v>
+        <v>256</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>75</v>
@@ -4975,44 +5010,44 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="C30" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J30" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="I30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J30" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="K30" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+      <c r="O30" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>75</v>
       </c>
@@ -5060,68 +5095,74 @@
         <v>75</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>165</v>
+        <v>257</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>259</v>
+        <v>75</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>75</v>
+        <v>262</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>75</v>
+        <v>263</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>75</v>
+        <v>229</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="C31" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="D31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>155</v>
+        <v>221</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>156</v>
+        <v>222</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>75</v>
       </c>
@@ -5169,36 +5210,36 @@
         <v>75</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>158</v>
+        <v>220</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>159</v>
+        <v>228</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>75</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>263</v>
+        <v>230</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5209,7 +5250,7 @@
         <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>75</v>
@@ -5221,13 +5262,13 @@
         <v>75</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>252</v>
+        <v>123</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>253</v>
+        <v>124</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5266,37 +5307,37 @@
         <v>75</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>162</v>
+        <v>75</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>163</v>
+        <v>75</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>164</v>
+        <v>75</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>165</v>
+        <v>125</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>75</v>
@@ -5304,10 +5345,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>265</v>
+        <v>231</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5318,7 +5359,7 @@
         <v>85</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>75</v>
@@ -5330,24 +5371,22 @@
         <v>75</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>268</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>269</v>
+        <v>75</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>75</v>
@@ -5377,37 +5416,35 @@
         <v>75</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AC33" s="2"/>
       <c r="AD33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>270</v>
+        <v>136</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>75</v>
@@ -5415,12 +5452,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="C34" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="B34" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
         <v>75</v>
       </c>
@@ -5432,7 +5471,7 @@
         <v>85</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>75</v>
@@ -5441,7 +5480,7 @@
         <v>75</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>143</v>
+        <v>272</v>
       </c>
       <c r="L34" t="s" s="2">
         <v>273</v>
@@ -5459,64 +5498,64 @@
         <v>75</v>
       </c>
       <c r="S34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI34" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="T34" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AJ34" t="s" s="2">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>75</v>
@@ -5524,10 +5563,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="B35" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5550,13 +5589,13 @@
         <v>75</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5607,7 +5646,7 @@
         <v>75</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
@@ -5625,7 +5664,7 @@
         <v>75</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>75</v>
@@ -5633,21 +5672,21 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="B36" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>75</v>
@@ -5659,17 +5698,15 @@
         <v>75</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>132</v>
+        <v>268</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>75</v>
@@ -5706,19 +5743,19 @@
         <v>75</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
@@ -5730,13 +5767,13 @@
         <v>75</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>159</v>
+        <v>75</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>75</v>
@@ -5744,10 +5781,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="B37" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5755,7 +5792,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>85</v>
@@ -5767,32 +5804,30 @@
         <v>75</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>99</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>167</v>
+        <v>282</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>168</v>
+        <v>283</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>75</v>
+        <v>285</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>283</v>
+        <v>75</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>75</v>
@@ -5831,10 +5866,10 @@
         <v>75</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>171</v>
+        <v>286</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>85</v>
@@ -5843,13 +5878,13 @@
         <v>75</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>172</v>
+        <v>75</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>75</v>
@@ -5857,10 +5892,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5868,32 +5903,30 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>175</v>
+        <v>289</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>75</v>
@@ -5942,7 +5975,7 @@
         <v>75</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>178</v>
+        <v>291</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
@@ -5957,10 +5990,10 @@
         <v>97</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>179</v>
+        <v>75</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>75</v>
@@ -5968,10 +6001,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5991,21 +6024,19 @@
         <v>75</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>182</v>
+        <v>123</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>183</v>
+        <v>124</v>
       </c>
       <c r="N39" s="2"/>
-      <c r="O39" t="s" s="2">
-        <v>184</v>
-      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>75</v>
       </c>
@@ -6053,7 +6084,7 @@
         <v>75</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>185</v>
+        <v>125</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
@@ -6065,13 +6096,13 @@
         <v>75</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>186</v>
+        <v>75</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>187</v>
+        <v>126</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>75</v>
@@ -6079,21 +6110,21 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>75</v>
@@ -6102,21 +6133,21 @@
         <v>75</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>189</v>
+        <v>130</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" t="s" s="2">
-        <v>191</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>75</v>
       </c>
@@ -6152,37 +6183,37 @@
         <v>75</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>192</v>
+        <v>136</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>193</v>
+        <v>75</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>194</v>
+        <v>126</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>75</v>
@@ -6190,10 +6221,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6201,13 +6232,13 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>75</v>
@@ -6216,19 +6247,19 @@
         <v>86</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>196</v>
+        <v>99</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>75</v>
@@ -6238,7 +6269,7 @@
         <v>75</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>75</v>
+        <v>298</v>
       </c>
       <c r="T41" t="s" s="2">
         <v>75</v>
@@ -6277,7 +6308,7 @@
         <v>75</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
@@ -6292,10 +6323,10 @@
         <v>97</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>75</v>
@@ -6303,46 +6334,44 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>216</v>
+        <v>300</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>217</v>
+        <v>75</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J42" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>75</v>
       </c>
@@ -6390,25 +6419,25 @@
         <v>75</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>75</v>
+        <v>194</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>128</v>
+        <v>195</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>75</v>
@@ -6416,10 +6445,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>221</v>
+        <v>302</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6427,13 +6456,13 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>75</v>
@@ -6442,17 +6471,17 @@
         <v>86</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>155</v>
+        <v>105</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>75</v>
@@ -6462,7 +6491,7 @@
         <v>75</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>75</v>
+        <v>265</v>
       </c>
       <c r="T43" t="s" s="2">
         <v>75</v>
@@ -6501,7 +6530,7 @@
         <v>75</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
@@ -6516,10 +6545,10 @@
         <v>97</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>75</v>
@@ -6527,10 +6556,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>227</v>
+        <v>304</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6553,17 +6582,17 @@
         <v>86</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>228</v>
+        <v>122</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>75</v>
@@ -6612,7 +6641,7 @@
         <v>75</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
@@ -6627,10 +6656,10 @@
         <v>97</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>75</v>
+        <v>209</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>75</v>
@@ -6638,10 +6667,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>233</v>
+        <v>306</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6649,13 +6678,13 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>75</v>
@@ -6664,19 +6693,19 @@
         <v>86</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>75</v>
@@ -6725,10 +6754,10 @@
         <v>75</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>85</v>
@@ -6740,10 +6769,10 @@
         <v>97</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>75</v>
@@ -6751,43 +6780,45 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>75</v>
+        <v>233</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I46" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>297</v>
+        <v>129</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>298</v>
+        <v>234</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="O46" t="s" s="2">
-        <v>245</v>
+        <v>166</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>75</v>
@@ -6836,40 +6867,38 @@
         <v>75</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>246</v>
+        <v>75</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>247</v>
+        <v>145</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>213</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="C47" t="s" s="2">
-        <v>300</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
         <v>75</v>
       </c>
@@ -6878,7 +6907,7 @@
         <v>76</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>75</v>
@@ -6890,19 +6919,17 @@
         <v>86</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>205</v>
+        <v>122</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>75</v>
@@ -6951,13 +6978,13 @@
         <v>75</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>204</v>
+        <v>237</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>75</v>
@@ -6966,21 +6993,21 @@
         <v>97</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>75</v>
+        <v>241</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>213</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7000,19 +7027,21 @@
         <v>75</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>155</v>
+        <v>244</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>156</v>
+        <v>245</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>157</v>
+        <v>246</v>
       </c>
       <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>75</v>
       </c>
@@ -7060,7 +7089,7 @@
         <v>75</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>158</v>
+        <v>243</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
@@ -7072,13 +7101,13 @@
         <v>75</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>159</v>
+        <v>248</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>75</v>
@@ -7086,10 +7115,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>215</v>
+        <v>249</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7100,28 +7129,32 @@
         <v>85</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>131</v>
+        <v>250</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>75</v>
       </c>
@@ -7157,35 +7190,37 @@
         <v>75</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AC49" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AD49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>164</v>
+        <v>75</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>165</v>
+        <v>249</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>75</v>
+        <v>255</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>75</v>
+        <v>256</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>75</v>
@@ -7193,14 +7228,12 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="C50" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
         <v>75</v>
       </c>
@@ -7218,19 +7251,21 @@
         <v>75</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>256</v>
+        <v>312</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>257</v>
+        <v>313</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>75</v>
       </c>
@@ -7278,38 +7313,40 @@
         <v>75</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>165</v>
+        <v>257</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>259</v>
+        <v>75</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>75</v>
+        <v>262</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>75</v>
+        <v>263</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>75</v>
+        <v>229</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="C51" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="C51" t="s" s="2">
+        <v>315</v>
+      </c>
       <c r="D51" t="s" s="2">
         <v>75</v>
       </c>
@@ -7318,28 +7355,32 @@
         <v>76</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>155</v>
+        <v>221</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>156</v>
+        <v>222</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>75</v>
       </c>
@@ -7387,36 +7428,36 @@
         <v>75</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>158</v>
+        <v>220</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>159</v>
+        <v>228</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>75</v>
+        <v>229</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>263</v>
+        <v>230</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7427,7 +7468,7 @@
         <v>76</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>75</v>
@@ -7439,13 +7480,13 @@
         <v>75</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>252</v>
+        <v>123</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>253</v>
+        <v>124</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7484,37 +7525,37 @@
         <v>75</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>162</v>
+        <v>75</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>163</v>
+        <v>75</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>164</v>
+        <v>75</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>165</v>
+        <v>125</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>75</v>
@@ -7522,10 +7563,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>265</v>
+        <v>231</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7536,7 +7577,7 @@
         <v>85</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>75</v>
@@ -7548,24 +7589,22 @@
         <v>75</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>268</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>269</v>
+        <v>75</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>75</v>
@@ -7595,37 +7634,35 @@
         <v>75</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AC53" s="2"/>
       <c r="AD53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>270</v>
+        <v>136</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>75</v>
@@ -7633,12 +7670,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="C54" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="C54" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="D54" t="s" s="2">
         <v>75</v>
       </c>
@@ -7650,7 +7689,7 @@
         <v>85</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>75</v>
@@ -7659,7 +7698,7 @@
         <v>75</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>143</v>
+        <v>272</v>
       </c>
       <c r="L54" t="s" s="2">
         <v>273</v>
@@ -7677,7 +7716,7 @@
         <v>75</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>308</v>
+        <v>75</v>
       </c>
       <c r="T54" t="s" s="2">
         <v>75</v>
@@ -7716,25 +7755,25 @@
         <v>75</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>276</v>
+        <v>136</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>75</v>
+        <v>275</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>75</v>
@@ -7742,10 +7781,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7768,13 +7807,13 @@
         <v>75</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7825,7 +7864,7 @@
         <v>75</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
@@ -7843,7 +7882,7 @@
         <v>75</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>75</v>
@@ -7851,21 +7890,21 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>75</v>
@@ -7877,17 +7916,15 @@
         <v>75</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>132</v>
+        <v>268</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>75</v>
@@ -7924,19 +7961,19 @@
         <v>75</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="AD56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>76</v>
@@ -7948,13 +7985,13 @@
         <v>75</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>159</v>
+        <v>75</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>75</v>
@@ -7962,10 +7999,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7973,7 +8010,7 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>85</v>
@@ -7985,32 +8022,30 @@
         <v>75</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K57" t="s" s="2">
         <v>99</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>167</v>
+        <v>282</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>168</v>
+        <v>283</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="Q57" s="2"/>
       <c r="R57" t="s" s="2">
-        <v>75</v>
+        <v>285</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>283</v>
+        <v>75</v>
       </c>
       <c r="T57" t="s" s="2">
         <v>75</v>
@@ -8049,10 +8084,10 @@
         <v>75</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>171</v>
+        <v>286</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>85</v>
@@ -8061,13 +8096,13 @@
         <v>75</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>172</v>
+        <v>75</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>75</v>
@@ -8075,10 +8110,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8086,32 +8121,30 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>175</v>
+        <v>289</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>75</v>
@@ -8160,7 +8193,7 @@
         <v>75</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>178</v>
+        <v>291</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>76</v>
@@ -8175,10 +8208,10 @@
         <v>97</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>179</v>
+        <v>75</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>75</v>
@@ -8186,10 +8219,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8209,21 +8242,19 @@
         <v>75</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>182</v>
+        <v>123</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>183</v>
+        <v>124</v>
       </c>
       <c r="N59" s="2"/>
-      <c r="O59" t="s" s="2">
-        <v>184</v>
-      </c>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>75</v>
       </c>
@@ -8271,7 +8302,7 @@
         <v>75</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>185</v>
+        <v>125</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>76</v>
@@ -8283,13 +8314,13 @@
         <v>75</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>186</v>
+        <v>75</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>187</v>
+        <v>126</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>75</v>
@@ -8297,21 +8328,21 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>75</v>
@@ -8320,21 +8351,21 @@
         <v>75</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>189</v>
+        <v>130</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" t="s" s="2">
-        <v>191</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>75</v>
       </c>
@@ -8370,37 +8401,37 @@
         <v>75</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="AD60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>192</v>
+        <v>136</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>193</v>
+        <v>75</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>194</v>
+        <v>126</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>75</v>
@@ -8408,10 +8439,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8419,13 +8450,13 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>75</v>
@@ -8434,19 +8465,19 @@
         <v>86</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>196</v>
+        <v>99</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>75</v>
@@ -8456,7 +8487,7 @@
         <v>75</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>75</v>
+        <v>298</v>
       </c>
       <c r="T61" t="s" s="2">
         <v>75</v>
@@ -8495,7 +8526,7 @@
         <v>75</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>76</v>
@@ -8510,10 +8541,10 @@
         <v>97</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>75</v>
@@ -8521,46 +8552,44 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>216</v>
+        <v>300</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>217</v>
+        <v>75</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J62" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>75</v>
       </c>
@@ -8608,25 +8637,25 @@
         <v>75</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>75</v>
+        <v>194</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>128</v>
+        <v>195</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>75</v>
@@ -8634,10 +8663,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>221</v>
+        <v>302</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8645,13 +8674,13 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>75</v>
@@ -8660,17 +8689,17 @@
         <v>86</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>155</v>
+        <v>105</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>75</v>
@@ -8680,7 +8709,7 @@
         <v>75</v>
       </c>
       <c r="S63" t="s" s="2">
-        <v>75</v>
+        <v>315</v>
       </c>
       <c r="T63" t="s" s="2">
         <v>75</v>
@@ -8719,7 +8748,7 @@
         <v>75</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>76</v>
@@ -8734,10 +8763,10 @@
         <v>97</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>75</v>
@@ -8745,10 +8774,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>227</v>
+        <v>304</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8771,17 +8800,17 @@
         <v>86</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>228</v>
+        <v>122</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>75</v>
@@ -8830,7 +8859,7 @@
         <v>75</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>76</v>
@@ -8845,10 +8874,10 @@
         <v>97</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>75</v>
+        <v>209</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>75</v>
@@ -8856,10 +8885,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>233</v>
+        <v>306</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8867,13 +8896,13 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>75</v>
@@ -8882,19 +8911,19 @@
         <v>86</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>75</v>
@@ -8943,10 +8972,10 @@
         <v>75</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>85</v>
@@ -8958,10 +8987,10 @@
         <v>97</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>75</v>
@@ -8969,43 +8998,45 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>75</v>
+        <v>233</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I66" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="J66" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>297</v>
+        <v>129</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>321</v>
+        <v>234</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="O66" t="s" s="2">
-        <v>245</v>
+        <v>166</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>75</v>
@@ -9054,36 +9085,36 @@
         <v>75</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>246</v>
+        <v>75</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>247</v>
+        <v>145</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>213</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>322</v>
+        <v>237</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9091,13 +9122,13 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>75</v>
@@ -9106,19 +9137,17 @@
         <v>86</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>297</v>
+        <v>122</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>323</v>
+        <v>238</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>325</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>75</v>
@@ -9167,7 +9196,7 @@
         <v>75</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>322</v>
+        <v>237</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>76</v>
@@ -9182,21 +9211,21 @@
         <v>97</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>213</v>
+        <v>75</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>326</v>
+        <v>243</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9219,19 +9248,17 @@
         <v>86</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>327</v>
+        <v>244</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>328</v>
+        <v>245</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>331</v>
+        <v>247</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>75</v>
@@ -9280,7 +9307,7 @@
         <v>75</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>326</v>
+        <v>243</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>76</v>
@@ -9295,21 +9322,21 @@
         <v>97</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>332</v>
+        <v>75</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>333</v>
+        <v>248</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>334</v>
+        <v>75</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>335</v>
+        <v>249</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9317,13 +9344,13 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>75</v>
@@ -9332,19 +9359,19 @@
         <v>86</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>327</v>
+        <v>250</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>336</v>
+        <v>251</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>337</v>
+        <v>252</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>330</v>
+        <v>253</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>331</v>
+        <v>254</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>75</v>
@@ -9393,10 +9420,10 @@
         <v>75</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>335</v>
+        <v>249</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>85</v>
@@ -9408,21 +9435,21 @@
         <v>97</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>338</v>
+        <v>255</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>339</v>
+        <v>256</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>334</v>
+        <v>75</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>340</v>
+        <v>257</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9445,17 +9472,17 @@
         <v>86</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>205</v>
+        <v>312</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>342</v>
+        <v>260</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>343</v>
+        <v>261</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>75</v>
@@ -9504,10 +9531,10 @@
         <v>75</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>340</v>
+        <v>257</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>85</v>
@@ -9519,21 +9546,21 @@
         <v>97</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>75</v>
+        <v>262</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>344</v>
+        <v>263</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>345</v>
+        <v>229</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9541,31 +9568,35 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>155</v>
+        <v>312</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>156</v>
+        <v>337</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="P71" t="s" s="2">
         <v>75</v>
       </c>
@@ -9613,7 +9644,7 @@
         <v>75</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>158</v>
+        <v>336</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>76</v>
@@ -9625,35 +9656,35 @@
         <v>75</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>75</v>
+        <v>262</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>159</v>
+        <v>263</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>75</v>
+        <v>229</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>75</v>
@@ -9662,21 +9693,23 @@
         <v>75</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>131</v>
+        <v>341</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>132</v>
+        <v>342</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>161</v>
+        <v>343</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O72" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>345</v>
+      </c>
       <c r="P72" t="s" s="2">
         <v>75</v>
       </c>
@@ -9724,71 +9757,71 @@
         <v>75</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>165</v>
+        <v>340</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>75</v>
+        <v>346</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>159</v>
+        <v>347</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>75</v>
+        <v>348</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>217</v>
+        <v>75</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J73" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>131</v>
+        <v>341</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>218</v>
+        <v>350</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>219</v>
+        <v>351</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>134</v>
+        <v>344</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>140</v>
+        <v>345</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>75</v>
@@ -9837,36 +9870,36 @@
         <v>75</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>220</v>
+        <v>349</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>75</v>
+        <v>352</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>128</v>
+        <v>353</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>75</v>
+        <v>348</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9874,13 +9907,13 @@
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>75</v>
@@ -9889,17 +9922,17 @@
         <v>86</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>155</v>
+        <v>221</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>222</v>
+        <v>355</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>75</v>
@@ -9948,10 +9981,10 @@
         <v>75</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>85</v>
@@ -9963,21 +9996,21 @@
         <v>97</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>352</v>
+        <v>75</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>75</v>
+        <v>359</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9997,21 +10030,19 @@
         <v>75</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>355</v>
+        <v>123</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>356</v>
+        <v>124</v>
       </c>
       <c r="N75" s="2"/>
-      <c r="O75" t="s" s="2">
-        <v>357</v>
-      </c>
+      <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>75</v>
       </c>
@@ -10059,7 +10090,7 @@
         <v>75</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>354</v>
+        <v>125</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>76</v>
@@ -10071,13 +10102,13 @@
         <v>75</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>358</v>
+        <v>75</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>359</v>
+        <v>126</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>75</v>
@@ -10085,21 +10116,21 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>75</v>
@@ -10108,21 +10139,21 @@
         <v>75</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>361</v>
+        <v>130</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N76" s="2"/>
-      <c r="O76" t="s" s="2">
-        <v>357</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>75</v>
       </c>
@@ -10170,25 +10201,25 @@
         <v>75</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>360</v>
+        <v>136</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>363</v>
+        <v>75</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>364</v>
+        <v>126</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>75</v>
@@ -10196,43 +10227,45 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>75</v>
+        <v>233</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J77" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>366</v>
+        <v>129</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>367</v>
+        <v>234</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N77" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="O77" t="s" s="2">
-        <v>369</v>
+        <v>166</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>75</v>
@@ -10281,25 +10314,25 @@
         <v>75</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>365</v>
+        <v>236</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>370</v>
+        <v>75</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>371</v>
+        <v>145</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>75</v>
@@ -10307,10 +10340,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10318,13 +10351,13 @@
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>75</v>
@@ -10333,19 +10366,17 @@
         <v>86</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>234</v>
+        <v>122</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>373</v>
+        <v>238</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>237</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>75</v>
@@ -10394,10 +10425,10 @@
         <v>75</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>85</v>
@@ -10409,10 +10440,10 @@
         <v>97</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>75</v>
@@ -10420,10 +10451,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10446,19 +10477,17 @@
         <v>86</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>242</v>
+        <v>122</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
-        <v>331</v>
+        <v>371</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>75</v>
@@ -10507,7 +10536,7 @@
         <v>75</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>76</v>
@@ -10522,21 +10551,21 @@
         <v>97</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>383</v>
+        <v>75</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10559,17 +10588,17 @@
         <v>86</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>385</v>
+        <v>122</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
-        <v>388</v>
+        <v>371</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>75</v>
@@ -10594,13 +10623,13 @@
         <v>75</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>389</v>
+        <v>75</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>390</v>
+        <v>75</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>391</v>
+        <v>75</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>75</v>
@@ -10618,7 +10647,7 @@
         <v>75</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>76</v>
@@ -10633,21 +10662,21 @@
         <v>97</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>394</v>
+        <v>75</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10670,16 +10699,18 @@
         <v>86</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>205</v>
+        <v>380</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="N81" s="2"/>
-      <c r="O81" s="2"/>
+      <c r="O81" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="P81" t="s" s="2">
         <v>75</v>
       </c>
@@ -10727,7 +10758,7 @@
         <v>75</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>76</v>
@@ -10742,10 +10773,10 @@
         <v>97</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>75</v>
@@ -10753,10 +10784,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10764,31 +10795,35 @@
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>155</v>
+        <v>250</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>156</v>
+        <v>387</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N82" s="2"/>
-      <c r="O82" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>389</v>
+      </c>
       <c r="P82" t="s" s="2">
         <v>75</v>
       </c>
@@ -10836,10 +10871,10 @@
         <v>75</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>158</v>
+        <v>386</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>85</v>
@@ -10848,13 +10883,13 @@
         <v>75</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>75</v>
+        <v>390</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>159</v>
+        <v>391</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>75</v>
@@ -10862,21 +10897,21 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>75</v>
@@ -10885,21 +10920,23 @@
         <v>75</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>131</v>
+        <v>258</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>132</v>
+        <v>393</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>161</v>
+        <v>394</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O83" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>345</v>
+      </c>
       <c r="P83" t="s" s="2">
         <v>75</v>
       </c>
@@ -10947,71 +10984,69 @@
         <v>75</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>165</v>
+        <v>392</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>75</v>
+        <v>395</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>159</v>
+        <v>396</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>75</v>
+        <v>397</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>217</v>
+        <v>75</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J84" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>131</v>
+        <v>399</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>218</v>
+        <v>400</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
-        <v>140</v>
+        <v>402</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>75</v>
@@ -11036,13 +11071,13 @@
         <v>75</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>75</v>
+        <v>403</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>75</v>
+        <v>404</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>75</v>
+        <v>405</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>75</v>
@@ -11060,36 +11095,36 @@
         <v>75</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>220</v>
+        <v>398</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>75</v>
+        <v>406</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>128</v>
+        <v>407</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>75</v>
+        <v>408</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11097,7 +11132,7 @@
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>85</v>
@@ -11112,18 +11147,16 @@
         <v>86</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>87</v>
+        <v>221</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="N85" s="2"/>
-      <c r="O85" t="s" s="2">
-        <v>406</v>
-      </c>
+      <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>75</v>
       </c>
@@ -11171,10 +11204,10 @@
         <v>75</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>85</v>
@@ -11186,10 +11219,10 @@
         <v>97</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>75</v>
@@ -11197,10 +11230,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11208,7 +11241,7 @@
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>85</v>
@@ -11220,23 +11253,19 @@
         <v>75</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>410</v>
+        <v>123</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>413</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>75</v>
       </c>
@@ -11260,13 +11289,13 @@
         <v>75</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>149</v>
+        <v>75</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>414</v>
+        <v>75</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>415</v>
+        <v>75</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>75</v>
@@ -11284,10 +11313,10 @@
         <v>75</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>409</v>
+        <v>125</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>85</v>
@@ -11296,13 +11325,13 @@
         <v>75</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>416</v>
+        <v>75</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>417</v>
+        <v>126</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>75</v>
@@ -11310,21 +11339,21 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>75</v>
@@ -11333,23 +11362,21 @@
         <v>75</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>419</v>
+        <v>129</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>420</v>
+        <v>130</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>421</v>
+        <v>131</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>423</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>75</v>
       </c>
@@ -11397,25 +11424,25 @@
         <v>75</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>418</v>
+        <v>136</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>424</v>
+        <v>75</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>425</v>
+        <v>126</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>75</v>
@@ -11423,45 +11450,45 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>75</v>
+        <v>233</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I88" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="J88" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>427</v>
+        <v>129</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>428</v>
+        <v>234</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>429</v>
+        <v>235</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>430</v>
+        <v>132</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>431</v>
+        <v>166</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>75</v>
@@ -11510,7 +11537,7 @@
         <v>75</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>426</v>
+        <v>236</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>76</v>
@@ -11522,13 +11549,13 @@
         <v>75</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>432</v>
+        <v>145</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>75</v>
@@ -11536,10 +11563,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -11553,7 +11580,7 @@
         <v>85</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I89" t="s" s="2">
         <v>75</v>
@@ -11562,17 +11589,17 @@
         <v>86</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>434</v>
+        <v>87</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>75</v>
@@ -11582,7 +11609,7 @@
         <v>75</v>
       </c>
       <c r="S89" t="s" s="2">
-        <v>438</v>
+        <v>75</v>
       </c>
       <c r="T89" t="s" s="2">
         <v>75</v>
@@ -11621,10 +11648,10 @@
         <v>75</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>85</v>
@@ -11636,17 +11663,467 @@
         <v>97</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>75</v>
+        <v>421</v>
       </c>
       <c r="AL89" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="P90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q90" s="2"/>
+      <c r="R90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="P91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q91" s="2"/>
+      <c r="R91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AL91" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="AM89" t="s" s="2">
+      <c r="AM91" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="92" hidden="true">
+      <c r="A92" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="P92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q92" s="2"/>
+      <c r="R92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="P93" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q93" s="2"/>
+      <c r="R93" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AM93" t="s" s="2">
         <v>75</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM89">
+  <autoFilter ref="A1:AM93">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11656,7 +12133,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI88">
+  <conditionalFormatting sqref="A2:AI92">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/ig/carecommunication/StructureDefinition-medcom-careCommunication-messageHeader.xlsx
+++ b/ig/carecommunication/StructureDefinition-medcom-careCommunication-messageHeader.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>5.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T14:45:58+00:00</t>
+    <t>2025-10-29T10:10:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
